--- a/data/SDG5.xlsx
+++ b/data/SDG5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bajk/Documents/GitHub/zhaw-sustainability/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4FC78F-0FEE-C345-B59E-687BA75CE628}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F7DF74-A2CB-5441-BF43-0ACD65F4210D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="2600" windowWidth="27240" windowHeight="16360" activeTab="3" xr2:uid="{13C7E8D9-A83A-C84D-9C97-5FD57B3B7CB1}"/>
   </bookViews>
@@ -2558,7 +2558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BC3FBE-B73E-B346-A7D7-891D70F6D4B5}">
   <dimension ref="A1:D136"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -4216,6 +4216,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="55.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="66" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="66" bestFit="1" customWidth="1"/>
@@ -6272,12 +6273,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65EE4FF8-A83D-344F-BC1E-5F4283600323}">
   <dimension ref="A1:E136"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="55.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="64.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="70" bestFit="1" customWidth="1"/>
@@ -8334,12 +8336,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDBA5D4C-CD98-E348-9F57-803F34FEFCCC}">
   <dimension ref="A1:E136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B123" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="55.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
     <col min="4" max="4" width="68.33203125" bestFit="1" customWidth="1"/>
